--- a/Project/PROJECT - 1.xlsx
+++ b/Project/PROJECT - 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\TOPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\git\Sukh09MarST\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,9 +335,6 @@
     <t>Technical Interview Download file icon</t>
   </si>
   <si>
-    <t>While clicking it downloads Technical Interview Preparation File</t>
-  </si>
-  <si>
     <t>HR Interview Download file icon</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>While clicking it redirects to Twitter Page</t>
+  </si>
+  <si>
+    <t>While clicking it redirects to Interview Questions page, not showing or downloading any new page</t>
   </si>
 </sst>
 </file>
@@ -784,15 +784,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -812,6 +803,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,11 +1109,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1415,7 +1415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>801</v>
       </c>
@@ -1539,13 +1539,13 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="21">
         <v>1005</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1623,11 +1623,11 @@
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -1679,11 +1679,11 @@
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -1724,11 +1724,11 @@
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -1747,11 +1747,11 @@
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -1765,14 +1765,14 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>1401</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>103</v>
+      <c r="C73" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1780,10 +1780,10 @@
         <v>1402</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -1791,10 +1791,10 @@
         <v>1403</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,21 +1803,21 @@
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="22"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1500</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1825,10 @@
         <v>1501</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,19 +1836,19 @@
         <v>1502</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,21 +1857,21 @@
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="22"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>1600</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,10 +1879,10 @@
         <v>1601</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,21 +1891,21 @@
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="22"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1700</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1913,10 @@
         <v>1701</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>1702</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1935,10 @@
         <v>1703</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>86</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,21 +1958,21 @@
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="22"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
+      <c r="A95" s="21">
         <v>1800</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1980,10 @@
         <v>1800</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,21 +1992,21 @@
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="22"/>
+      <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1900</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>86</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2"/>
     </row>
@@ -2037,10 +2037,10 @@
         <v>2000</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,10 +2048,10 @@
         <v>2001</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,10 +2059,10 @@
         <v>2002</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2"/>
     </row>
@@ -2082,10 +2082,10 @@
         <v>2100</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,10 +2093,10 @@
         <v>2200</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="2"/>
     </row>
@@ -2116,10 +2116,10 @@
         <v>2200</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>72</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>82</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2"/>
     </row>
@@ -2161,10 +2161,10 @@
         <v>2300</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,10 +2172,10 @@
         <v>2301</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2"/>
     </row>
@@ -2195,10 +2195,10 @@
         <v>2400</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>2401</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2217,10 @@
         <v>2402</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>2403</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2239,10 @@
         <v>2404</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2250,10 @@
         <v>2405</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>2406</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
         <v>2407</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,686 +2283,686 @@
         <v>2408</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="27"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="27"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="27"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="27"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="27"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="27"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="24"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="27"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="27"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="27"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="27"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="24"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
-      <c r="C173" s="27"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
-      <c r="C174" s="27"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="27"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="27"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="24"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="27"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="27"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
-      <c r="C185" s="27"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="27"/>
+      <c r="A188" s="24"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="27"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="27"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="27"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="27"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="27"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
-      <c r="C198" s="27"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
+      <c r="A199" s="24"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="27"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
+      <c r="A201" s="24"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="27"/>
+      <c r="A202" s="24"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
-      <c r="C203" s="27"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
+      <c r="A205" s="24"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="24"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
+      <c r="A206" s="24"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="27"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="24"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="24"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="24"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="24"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="24"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="27"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="27"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="27"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="24"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
+      <c r="A216" s="24"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="27"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="24"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
+      <c r="A219" s="24"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
+      <c r="A220" s="24"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="27"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="24"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="27"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="24"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="27"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="27"/>
+      <c r="A224" s="24"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="24"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="27"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="24"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="24"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="27"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
-      <c r="C230" s="27"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="27"/>
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="24"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="27"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="24"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
-      <c r="C234" s="27"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="24"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="27"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="24"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="27"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="24"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
-      <c r="C237" s="27"/>
+      <c r="A237" s="24"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="24"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="27"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
-      <c r="C239" s="27"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="24"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
-      <c r="C240" s="27"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="24"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="27"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="24"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
-      <c r="C242" s="27"/>
+      <c r="A242" s="24"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="24"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
-      <c r="C243" s="27"/>
+      <c r="A243" s="24"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="27"/>
-      <c r="B244" s="27"/>
-      <c r="C244" s="27"/>
+      <c r="A244" s="24"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="24"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27"/>
-      <c r="C245" s="27"/>
+      <c r="A245" s="24"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="24"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27"/>
-      <c r="C246" s="27"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="24"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="27"/>
-      <c r="B247" s="27"/>
-      <c r="C247" s="27"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="24"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
-      <c r="B248" s="27"/>
-      <c r="C248" s="27"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="24"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="27"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="27"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="27"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="27"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="24"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="27"/>
-      <c r="B251" s="27"/>
-      <c r="C251" s="27"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="24"/>
+      <c r="C251" s="24"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="27"/>
-      <c r="B252" s="27"/>
-      <c r="C252" s="27"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="24"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="27"/>
-      <c r="B253" s="27"/>
-      <c r="C253" s="27"/>
+      <c r="A253" s="24"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="27"/>
-      <c r="B254" s="27"/>
-      <c r="C254" s="27"/>
+      <c r="A254" s="24"/>
+      <c r="B254" s="24"/>
+      <c r="C254" s="24"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
-      <c r="C255" s="27"/>
+      <c r="A255" s="24"/>
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="27"/>
+      <c r="A256" s="24"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="27"/>
-      <c r="B257" s="27"/>
-      <c r="C257" s="27"/>
+      <c r="A257" s="24"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
-      <c r="C258" s="27"/>
+      <c r="A258" s="24"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
-      <c r="C259" s="27"/>
+      <c r="A259" s="24"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="27"/>
-      <c r="B260" s="27"/>
-      <c r="C260" s="27"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
-      <c r="C261" s="27"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="27"/>
-      <c r="B262" s="27"/>
-      <c r="C262" s="27"/>
+      <c r="A262" s="24"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
-      <c r="C263" s="27"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
